--- a/docs/base/StructureDefinition-lt-encounter.xlsx
+++ b/docs/base/StructureDefinition-lt-encounter.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.0</t>
+    <t>0.2.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -655,7 +655,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(https://hl7.lt/fhir/base/StructureDefinition/lt-patient|0.1.0)
+    <t xml:space="preserve">Reference(https://hl7.lt/fhir/base/StructureDefinition/lt-patient|0.2.0)
 </t>
   </si>
   <si>
@@ -1119,7 +1119,7 @@
 Admission diagnosis</t>
   </si>
   <si>
-    <t xml:space="preserve">CodeableReference(https://hl7.lt/fhir/base/StructureDefinition/lt-condition|0.1.0|DiagnosticReport|5.0.0|Procedure|5.0.0|https://hl7.lt/fhir/base/StructureDefinition/lt-observation|0.1.0)
+    <t xml:space="preserve">CodeableReference(https://hl7.lt/fhir/base/StructureDefinition/lt-condition|0.2.0|DiagnosticReport|5.0.0|Procedure|5.0.0|https://hl7.lt/fhir/base/StructureDefinition/lt-observation|0.2.0)
 </t>
   </si>
   <si>
